--- a/クラス図/各システムバージョンリスト.xlsx
+++ b/クラス図/各システムバージョンリスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryuse\Desktop\create\Elina_Lead\クラス図\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65569C8F-0B6C-4015-B49A-08DF0A1F9C83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E4BF7C-7617-4524-8AF5-BECC0966A818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>3Dモデル変換アプリ</t>
     <rPh sb="5" eb="7">
@@ -106,6 +106,16 @@
   </si>
   <si>
     <t>ver.1.0.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プラットフォーム独立部</t>
+    <rPh sb="8" eb="10">
+      <t>ドクリツ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ブ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -498,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:L3"/>
+  <dimension ref="B2:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -543,6 +553,25 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="2:12">
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/クラス図/各システムバージョンリスト.xlsx
+++ b/クラス図/各システムバージョンリスト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryuse\Desktop\create\Elina_Lead\クラス図\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E4BF7C-7617-4524-8AF5-BECC0966A818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C6BEAC-4B6B-4DED-9CFF-F40FA6AFBB69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Elina_Lead_Project" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>3Dモデル変換アプリ</t>
     <rPh sb="5" eb="7">
@@ -102,10 +102,6 @@
     <rPh sb="8" eb="9">
       <t>ブ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ver.1.0.0</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -511,10 +507,10 @@
   <dimension ref="B2:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="2" spans="2:12">
       <c r="B2" s="4" t="s">
@@ -541,8 +537,8 @@
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="3" t="s">
-        <v>12</v>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -556,12 +552,12 @@
     </row>
     <row r="4" spans="2:12">
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="3" t="s">
-        <v>12</v>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -592,7 +588,7 @@
       <selection activeCell="B3" sqref="B3:L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="2" spans="2:12">
       <c r="B2" s="4" t="s">

--- a/クラス図/各システムバージョンリスト.xlsx
+++ b/クラス図/各システムバージョンリスト.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryuse\Desktop\create\Elina_Lead\クラス図\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C6BEAC-4B6B-4DED-9CFF-F40FA6AFBB69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5315182-5F9C-4F5F-A85F-C95A34297D63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Elina_Lead_Project" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>3Dモデル変換アプリ</t>
     <rPh sb="5" eb="7">
@@ -112,6 +112,21 @@
     <rPh sb="10" eb="11">
       <t>ブ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レンダリングAPI部</t>
+    <rPh sb="9" eb="10">
+      <t>ブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ver.1.0.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ver.2.1.0</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -504,13 +519,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:L4"/>
+  <dimension ref="B2:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
     <row r="2" spans="2:12">
       <c r="B2" s="4" t="s">
@@ -568,6 +583,25 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -588,7 +622,7 @@
       <selection activeCell="B3" sqref="B3:L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
     <row r="2" spans="2:12">
       <c r="B2" s="4" t="s">

--- a/クラス図/各システムバージョンリスト.xlsx
+++ b/クラス図/各システムバージョンリスト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryuse\Desktop\create\Elina_Lead\クラス図\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5315182-5F9C-4F5F-A85F-C95A34297D63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{009523E1-6157-4410-9EC9-946625F3F78A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Elina_Lead_Project" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t>3Dモデル変換アプリ</t>
     <rPh sb="5" eb="7">
@@ -119,10 +119,6 @@
     <rPh sb="9" eb="10">
       <t>ブ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ver.1.0.0</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -522,10 +518,10 @@
   <dimension ref="B2:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="2" spans="2:12">
       <c r="B2" s="4" t="s">
@@ -591,13 +587,13 @@
       <c r="C5" s="3"/>
       <c r="D5" s="2"/>
       <c r="E5" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="2"/>
       <c r="I5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -622,7 +618,7 @@
       <selection activeCell="B3" sqref="B3:L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="2" spans="2:12">
       <c r="B2" s="4" t="s">

--- a/クラス図/各システムバージョンリスト.xlsx
+++ b/クラス図/各システムバージョンリスト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryuse\Desktop\create\Elina_Lead\クラス図\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{009523E1-6157-4410-9EC9-946625F3F78A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2AECA4-644B-4DA3-9F0B-6942D10240C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Elina_Lead_Project" sheetId="1" r:id="rId1"/>
@@ -517,7 +517,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -614,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0105B58-1A66-455E-8AC4-9DF601150C21}">
   <dimension ref="B2:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:L3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -684,7 +684,7 @@
       <c r="C5" s="3"/>
       <c r="D5" s="2"/>
       <c r="E5" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>

--- a/クラス図/各システムバージョンリスト.xlsx
+++ b/クラス図/各システムバージョンリスト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryuse\Desktop\create\Elina_Lead\クラス図\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2AECA4-644B-4DA3-9F0B-6942D10240C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D55A73B-9711-4C97-ABD2-19D258C04E87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Elina_Lead_Project" sheetId="1" r:id="rId1"/>
@@ -521,7 +521,7 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
     <row r="2" spans="2:12">
       <c r="B2" s="4" t="s">
@@ -615,10 +615,10 @@
   <dimension ref="B2:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
     <row r="2" spans="2:12">
       <c r="B2" s="4" t="s">
@@ -684,13 +684,13 @@
       <c r="C5" s="3"/>
       <c r="D5" s="2"/>
       <c r="E5" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="2"/>
       <c r="I5" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>

--- a/クラス図/各システムバージョンリスト.xlsx
+++ b/クラス図/各システムバージョンリスト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryuse\Desktop\create\Elina_Lead\クラス図\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D55A73B-9711-4C97-ABD2-19D258C04E87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C734D6-062D-418A-84D2-58760765644F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Elina_Lead_Project" sheetId="1" r:id="rId1"/>
@@ -521,7 +521,7 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="2" spans="2:12">
       <c r="B2" s="4" t="s">
@@ -615,10 +615,10 @@
   <dimension ref="B2:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="2" spans="2:12">
       <c r="B2" s="4" t="s">
@@ -645,8 +645,8 @@
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="3" t="s">
-        <v>4</v>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>

--- a/クラス図/各システムバージョンリスト.xlsx
+++ b/クラス図/各システムバージョンリスト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryuse\Desktop\create\Elina_Lead\クラス図\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C734D6-062D-418A-84D2-58760765644F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{305DEFBF-0A14-49C6-83AE-76D433B6F659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Elina_Lead_Project" sheetId="1" r:id="rId1"/>
@@ -66,10 +66,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ver.3.0.0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ver.1.0.0</t>
   </si>
   <si>
@@ -123,6 +119,10 @@
   </si>
   <si>
     <t>ver.2.1.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ver.3.1.0</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -521,11 +521,11 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
     <row r="2" spans="2:12">
       <c r="B2" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -544,18 +544,18 @@
     </row>
     <row r="3" spans="2:12">
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="2"/>
       <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="2"/>
       <c r="I3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -563,18 +563,18 @@
     </row>
     <row r="4" spans="2:12">
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="2"/>
       <c r="E4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="2"/>
       <c r="I4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -582,7 +582,7 @@
     </row>
     <row r="5" spans="2:12">
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="2"/>
@@ -593,7 +593,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="2"/>
       <c r="I5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -615,10 +615,10 @@
   <dimension ref="B2:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
     <row r="2" spans="2:12">
       <c r="B2" s="4" t="s">
@@ -646,13 +646,13 @@
       <c r="C3" s="3"/>
       <c r="D3" s="2"/>
       <c r="E3" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="2"/>
       <c r="I3" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -660,18 +660,18 @@
     </row>
     <row r="4" spans="2:12">
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="2"/>
       <c r="E4" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="2"/>
       <c r="I4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -679,7 +679,7 @@
     </row>
     <row r="5" spans="2:12">
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="2"/>

--- a/クラス図/各システムバージョンリスト.xlsx
+++ b/クラス図/各システムバージョンリスト.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryuse\Desktop\create\Elina_Lead\クラス図\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{305DEFBF-0A14-49C6-83AE-76D433B6F659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD8AF4A6-3048-4861-8C98-49573D900200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Elina_Lead_Project" sheetId="1" r:id="rId1"/>
@@ -517,11 +517,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="2" spans="2:12">
       <c r="B2" s="4" t="s">
@@ -549,13 +549,13 @@
       <c r="C3" s="3"/>
       <c r="D3" s="2"/>
       <c r="E3" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="2"/>
       <c r="I3" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -614,11 +614,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0105B58-1A66-455E-8AC4-9DF601150C21}">
   <dimension ref="B2:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="2" spans="2:12">
       <c r="B2" s="4" t="s">

--- a/クラス図/各システムバージョンリスト.xlsx
+++ b/クラス図/各システムバージョンリスト.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryuse\Desktop\create\Elina_Lead\クラス図\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryuse\Desktop\create\Cliques_Engine\クラス図\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD8AF4A6-3048-4861-8C98-49573D900200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A371B485-5EBC-4582-A28E-EFDE9D086654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Elina_Lead_Project" sheetId="1" r:id="rId1"/>
+    <sheet name="Cliques_Engine" sheetId="1" r:id="rId1"/>
     <sheet name="独自形式用アプリ" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -518,7 +518,7 @@
   <dimension ref="B2:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
